--- a/excelData/EMR_ClinicalInfo.template.xlsx
+++ b/excelData/EMR_ClinicalInfo.template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heguangliang/PycharmProjects/databaseDemo2/excelData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7914B36-CBB6-2D40-9C38-D2226CBA0AE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F4C80C6-B839-9945-AB82-0B245E818B70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28820" yWindow="460" windowWidth="27320" windowHeight="20020" xr2:uid="{EC94F2F1-ED2D-CA4E-A561-845389171F11}"/>
+    <workbookView xWindow="28800" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{EC94F2F1-ED2D-CA4E-A561-845389171F11}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>住院号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,18 +66,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>肿瘤类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>分化程度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>肿瘤1直径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -93,10 +85,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hosp1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>病历编号</t>
   </si>
   <si>
@@ -114,6 +102,26 @@
   <si>
     <t>肺癌</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肿瘤最大径</t>
+  </si>
+  <si>
+    <t>TNM分期</t>
+  </si>
+  <si>
+    <t>AJCC分期</t>
+  </si>
+  <si>
+    <t>hosp2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>patient2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>癌种</t>
   </si>
 </sst>
 </file>
@@ -513,21 +521,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D38103D4-899A-064D-9920-206E004F315E}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="27.5" customWidth="1"/>
     <col min="8" max="8" width="10.83203125" style="1"/>
     <col min="9" max="9" width="10.33203125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" style="3"/>
+    <col min="12" max="14" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -541,7 +549,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -556,40 +564,46 @@
         <v>7</v>
       </c>
       <c r="J1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="str">
+        <f>_xlfn.CONCAT(B2,"_",A2,"_",TEXT(I2,"yyyy-mm-dd"))</f>
+        <v>hosp2_patient2_2020-07-15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
         <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2">
-        <v>20200715</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="str">
-        <f>_xlfn.CONCAT(B2,"_",A2)</f>
-        <v>hosp1_20200715</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
       </c>
       <c r="H2" s="1">
         <v>18</v>
@@ -598,16 +612,22 @@
         <v>44027</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L2" s="3">
         <v>1</v>
       </c>
       <c r="M2" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="N2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -645,12 +665,12 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
